--- a/ROGUELIKE/res/armas.xlsx
+++ b/ROGUELIKE/res/armas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9C1E566-A1D7-E144-A0AD-50C0EEB161A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390192A7-46D2-1545-89AC-93F9D79CD8E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16680" xr2:uid="{A836B3ED-0900-8649-989A-286E2BE47057}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>imagem</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>dano</t>
   </si>
   <si>
@@ -112,6 +109,15 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>energia</t>
+  </si>
+  <si>
+    <t>#ID</t>
   </si>
 </sst>
 </file>
@@ -463,57 +469,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C5D99F-74B8-4D46-B705-B9E990129972}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -522,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -533,16 +545,22 @@
       <c r="I2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -551,10 +569,10 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>4000</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -562,16 +580,22 @@
       <c r="I3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1800</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -580,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -591,16 +615,22 @@
       <c r="I4">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>2100</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -609,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>6000</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -620,16 +650,22 @@
       <c r="I5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1900</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -638,10 +674,10 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>140</v>
+        <v>7000</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -649,16 +685,22 @@
       <c r="I6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>2200</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -667,10 +709,10 @@
         <v>15</v>
       </c>
       <c r="F7">
-        <v>150</v>
+        <v>8000</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -678,16 +720,22 @@
       <c r="I7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2500</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -696,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="F8">
-        <v>160</v>
+        <v>6000</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -707,16 +755,22 @@
       <c r="I8">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -725,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -736,16 +790,22 @@
       <c r="I9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1800</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -754,16 +814,22 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>180</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
         <v>1300</v>
+      </c>
+      <c r="J10">
+        <v>2800</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ROGUELIKE/res/armas.xlsx
+++ b/ROGUELIKE/res/armas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390192A7-46D2-1545-89AC-93F9D79CD8E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698BE1A-2DA5-FB44-82CE-46DD251F8526}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16680" xr2:uid="{A836B3ED-0900-8649-989A-286E2BE47057}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>imagem</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>arma 1</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>arma 2</t>
@@ -472,7 +469,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -511,10 +508,10 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -528,16 +525,16 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <v>2000</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -557,22 +554,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>4000</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -592,22 +589,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -627,22 +624,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>6000</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -662,22 +659,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>7000</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -697,22 +694,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>8000</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -732,22 +729,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>6000</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -767,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="F9">
         <v>5000</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -802,22 +799,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>2000</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="F10">
         <v>5000</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>9</v>

--- a/ROGUELIKE/res/armas.xlsx
+++ b/ROGUELIKE/res/armas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherobin/Documents/Projetos/Apenas-Uma-Vez/ROGUELIKE/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denni\Documents\GitHub\apenas_uma_vez\ROGUELIKE\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698BE1A-2DA5-FB44-82CE-46DD251F8526}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0CD2417-CDE5-41A4-8B74-47EFA9C33F9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16680" xr2:uid="{A836B3ED-0900-8649-989A-286E2BE47057}"/>
+    <workbookView xWindow="276" yWindow="456" windowWidth="28236" windowHeight="16680" xr2:uid="{A836B3ED-0900-8649-989A-286E2BE47057}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -469,17 +469,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -514,7 +514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -546,10 +546,10 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>250</v>
@@ -581,10 +581,10 @@
         <v>1800</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -616,10 +616,10 @@
         <v>2100</v>
       </c>
       <c r="K4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -651,10 +651,10 @@
         <v>1900</v>
       </c>
       <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -686,10 +686,10 @@
         <v>2200</v>
       </c>
       <c r="K6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -721,10 +721,10 @@
         <v>2500</v>
       </c>
       <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -735,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -756,10 +756,10 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -770,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E9">
         <v>600</v>
@@ -791,10 +791,10 @@
         <v>1800</v>
       </c>
       <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -805,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E10">
         <v>250</v>
@@ -826,7 +826,7 @@
         <v>2800</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/ROGUELIKE/res/armas.xlsx
+++ b/ROGUELIKE/res/armas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denni\Documents\GitHub\apenas_uma_vez\ROGUELIKE\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0CD2417-CDE5-41A4-8B74-47EFA9C33F9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18A39852-27B1-4C2F-85C6-9D8D7929E150}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="276" yWindow="456" windowWidth="28236" windowHeight="16680" xr2:uid="{A836B3ED-0900-8649-989A-286E2BE47057}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>200</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -566,7 +566,7 @@
         <v>250</v>
       </c>
       <c r="F3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -601,7 +601,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -636,7 +636,7 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -671,7 +671,7 @@
         <v>500</v>
       </c>
       <c r="F6">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -706,7 +706,7 @@
         <v>150</v>
       </c>
       <c r="F7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -776,7 +776,7 @@
         <v>600</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -811,7 +811,7 @@
         <v>250</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
